--- a/TODO/What's ToDo.xlsx
+++ b/TODO/What's ToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>目标设置日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,26 @@
   </si>
   <si>
     <t>对BSC参数展现页新增日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把SQLServerLibrary放到单独的一个项目里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把Log的函数"LogOnTextBoxAndDataBaseForBaseSation"放到CommonLibrary里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定展示小区级参数页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定功能页面，找出最近的点(通过经纬度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把各个项目分别摆放到单独的文件夹，然后再用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,8 +528,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,14 +686,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42379</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -728,14 +748,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42389</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -759,53 +779,77 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42389</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42391</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="5">
+        <v>42458</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>42458</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>42458</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5">
+        <v>42458</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5">
+        <v>42458</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>42458</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>

--- a/TODO/What's ToDo.xlsx
+++ b/TODO/What's ToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>目标设置日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>把各个项目分别摆放到单独的文件夹，然后再用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再"基站基础信息管理"页面中，新增批量查看更新日期以及行数的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增查看基站基础信息Log的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +536,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,14 +767,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42389</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -851,14 +859,22 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>42467</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="5">
+        <v>42467</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/TODO/What's ToDo.xlsx
+++ b/TODO/What's ToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>目标设置日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>新增查看基站基础信息Log的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对更新保障小区列表中对不需要更新的内容进行删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对更新保障小区列表中把其余的需要用到的表入到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立数据库自动更新2G CDD、LTE基站信息表ID列的存储过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对按钮增加延时按钮，以求不要重复提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加综资表内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加BackStage删除旧TmpFile功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加管理表格功能，以及BackStage增加更新管理表格功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加热点列表下载功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新热点小区列表弄多一个LTE根据小区中文名更新的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +572,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,58 +904,94 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42467</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>42514</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>42514</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>42514</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>42514</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="5">
+        <v>42516</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="5">
+        <v>42516</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="5">
+        <v>42516</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="5">
+        <v>42516</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="5">
+        <v>42517</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/TODO/What's ToDo.xlsx
+++ b/TODO/What's ToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>目标设置日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>更新热点小区列表弄多一个LTE根据小区中文名更新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新BSC及小区级参数修改的数据库录入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +576,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,32 +953,32 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42516</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42516</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42516</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
@@ -985,19 +989,23 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42517</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42520</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>

--- a/TODO/What's ToDo.xlsx
+++ b/TODO/What's ToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>目标设置日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>更新BSC及小区级参数修改的数据库录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对保障下载的小区列表增加报错功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对多用户登陆进行限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,8 +584,8 @@
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,14 +880,14 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42458</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
@@ -980,14 +988,14 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42516</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -1007,14 +1015,22 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>42523</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="5">
+        <v>42538</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
